--- a/AutomationPractice/src/main/java/com/automationpractice/qa/testdata/AutomationPracticeTestData.xlsx
+++ b/AutomationPractice/src/main/java/com/automationpractice/qa/testdata/AutomationPracticeTestData.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="5520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A19:K34"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>title</t>
   </si>
@@ -42,41 +42,116 @@
     <t>Peter</t>
   </si>
   <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>Cris</t>
-  </si>
-  <si>
     <t>Mrs.</t>
   </si>
   <si>
-    <t>Sharma</t>
-  </si>
-  <si>
     <t>Santa</t>
   </si>
   <si>
-    <t>Banta</t>
-  </si>
-  <si>
-    <t>Chintu</t>
-  </si>
-  <si>
-    <t>Sweegy</t>
-  </si>
-  <si>
-    <t>FoodPanda</t>
-  </si>
-  <si>
-    <t>Zomato</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>assigneeaddress</t>
+  </si>
+  <si>
+    <t>santa@gmail.com</t>
+  </si>
+  <si>
+    <t>TestCompany</t>
+  </si>
+  <si>
+    <t>Keily,washingognton road</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>new city</t>
+  </si>
+  <si>
+    <t>Work Address</t>
+  </si>
+  <si>
+    <t>Rozy</t>
+  </si>
+  <si>
+    <t>Syrus</t>
+  </si>
+  <si>
+    <t>rozy@gmail.com</t>
+  </si>
+  <si>
+    <t>rozy@s1</t>
+  </si>
+  <si>
+    <t>santa@p1</t>
+  </si>
+  <si>
+    <t>Testing Pvt. Ltd</t>
+  </si>
+  <si>
+    <t>WA,Zing Road</t>
+  </si>
+  <si>
+    <t>Old City</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>United states</t>
+  </si>
+  <si>
+    <t>Home Address</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>22/11/1983</t>
+  </si>
+  <si>
+    <t>80016</t>
+  </si>
+  <si>
+    <t>99501</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>9876543211</t>
+  </si>
+  <si>
+    <t>10/2/2002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +163,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,14 +206,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,15 +494,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,57 +520,136 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -494,4 +675,67 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1">
+        <v>9876543211</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="E1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutomationPractice/src/main/java/com/automationpractice/qa/testdata/AutomationPracticeTestData.xlsx
+++ b/AutomationPractice/src/main/java/com/automationpractice/qa/testdata/AutomationPracticeTestData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15240" windowHeight="5520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14565" windowHeight="5520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateAccount" sheetId="1" r:id="rId1"/>
-    <sheet name="deals" sheetId="2" r:id="rId2"/>
+    <sheet name="products" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:I16"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>title</t>
   </si>
@@ -145,6 +146,30 @@
   </si>
   <si>
     <t>10/2/2002</t>
+  </si>
+  <si>
+    <t>srno</t>
+  </si>
+  <si>
+    <t>productCategory</t>
+  </si>
+  <si>
+    <t>productSubCategory</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>Summer Dresses</t>
   </si>
 </sst>
 </file>
@@ -197,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,17 +230,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -655,12 +696,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
